--- a/Documents/オムロンBL01のパラメータについて.xlsx
+++ b/Documents/オムロンBL01のパラメータについて.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\bitbucket\vtl\healthy_sleep\healthy_sleep_doc\specification\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\github\BL01\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3763AB77-3F75-4012-83EF-D64A57EE29C7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ECA29AC-EB05-45F4-A9D1-96CAB56CA811}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29835" yWindow="4395" windowWidth="24765" windowHeight="15420" xr2:uid="{1713DEE0-F1FC-4F11-8C24-81573D23F2D3}"/>
+    <workbookView xWindow="3825" yWindow="150" windowWidth="24765" windowHeight="15420" xr2:uid="{1713DEE0-F1FC-4F11-8C24-81573D23F2D3}"/>
   </bookViews>
   <sheets>
     <sheet name="ビーコンモードEPに変更" sheetId="3" r:id="rId1"/>
@@ -776,20 +776,27 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>secに設定</t>
+    <rPh sb="4" eb="6">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>ビーコンモード 0x04(General Broadcaster 2)EPに設定
-ビーコンモード 0x04のときは、受信にペアリングは必要なし</t>
+ビーコンモード 0x04のときは、受信にペアリングは必要なし
+IMモード 0x02のときに加速度が取れる</t>
     <rPh sb="58" eb="60">
       <t>ジュシン</t>
     </rPh>
     <rPh sb="67" eb="69">
       <t>ヒツヨウ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>secに設定</t>
-    <rPh sb="4" eb="6">
-      <t>セッテイ</t>
+    <rPh sb="86" eb="89">
+      <t>カソクド</t>
+    </rPh>
+    <rPh sb="90" eb="91">
+      <t>ト</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1028,6 +1035,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1053,23 +1066,14 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1077,6 +1081,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1395,8 +1402,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4848039-665A-4522-A532-7F00681F38A1}">
   <dimension ref="C2:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30:I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1522,22 +1529,22 @@
       <c r="H18" s="8"/>
     </row>
     <row r="19" spans="3:9" x14ac:dyDescent="0.4">
-      <c r="C19" s="28" t="s">
+      <c r="C19" s="30" t="s">
         <v>126</v>
       </c>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
     </row>
     <row r="20" spans="3:9" x14ac:dyDescent="0.4">
       <c r="C20" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="D20" s="27" t="s">
+      <c r="D20" s="29" t="s">
         <v>128</v>
       </c>
-      <c r="E20" s="27"/>
+      <c r="E20" s="29"/>
       <c r="F20" s="21" t="s">
         <v>97</v>
       </c>
@@ -1549,35 +1556,35 @@
       <c r="C21" s="10">
         <v>0</v>
       </c>
-      <c r="D21" s="32" t="s">
+      <c r="D21" s="33" t="s">
         <v>130</v>
       </c>
       <c r="E21" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="F21" s="34" t="s">
+      <c r="F21" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="G21" s="31" t="s">
+      <c r="G21" s="23" t="s">
         <v>141</v>
       </c>
       <c r="H21" s="8">
         <v>2</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="22" spans="3:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C22" s="10">
         <v>1</v>
       </c>
-      <c r="D22" s="32"/>
+      <c r="D22" s="33"/>
       <c r="E22" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="F22" s="34"/>
-      <c r="G22" s="31"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="23"/>
       <c r="H22" s="8">
         <f>H21*1000/0.625</f>
         <v>3200</v>
@@ -1591,149 +1598,144 @@
       <c r="C23" s="10">
         <v>2</v>
       </c>
-      <c r="D23" s="31" t="s">
+      <c r="D23" s="23" t="s">
         <v>138</v>
       </c>
       <c r="E23" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="F23" s="34" t="s">
+      <c r="F23" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="G23" s="31" t="s">
+      <c r="G23" s="23" t="s">
         <v>145</v>
       </c>
-      <c r="H23" s="29" t="s">
+      <c r="H23" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="I23" s="30"/>
+      <c r="I23" s="32"/>
     </row>
     <row r="24" spans="3:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C24" s="10">
         <v>3</v>
       </c>
-      <c r="D24" s="31"/>
+      <c r="D24" s="23"/>
       <c r="E24" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="F24" s="34"/>
-      <c r="G24" s="32"/>
-      <c r="H24" s="29"/>
-      <c r="I24" s="30"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="32"/>
     </row>
     <row r="25" spans="3:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C25" s="10">
         <v>4</v>
       </c>
-      <c r="D25" s="31" t="s">
+      <c r="D25" s="23" t="s">
         <v>139</v>
       </c>
       <c r="E25" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="F25" s="34" t="s">
+      <c r="F25" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="G25" s="33" t="s">
+      <c r="G25" s="34" t="s">
         <v>146</v>
       </c>
-      <c r="H25" s="29" t="s">
+      <c r="H25" s="31" t="s">
         <v>147</v>
       </c>
-      <c r="I25" s="30"/>
+      <c r="I25" s="32"/>
     </row>
     <row r="26" spans="3:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C26" s="10">
         <v>5</v>
       </c>
-      <c r="D26" s="31"/>
+      <c r="D26" s="23"/>
       <c r="E26" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="F26" s="34"/>
-      <c r="G26" s="32"/>
-      <c r="H26" s="29"/>
-      <c r="I26" s="30"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="31"/>
+      <c r="I26" s="32"/>
     </row>
     <row r="27" spans="3:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C27" s="10">
         <v>6</v>
       </c>
-      <c r="D27" s="31" t="s">
+      <c r="D27" s="23" t="s">
         <v>140</v>
       </c>
       <c r="E27" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="F27" s="34" t="s">
+      <c r="F27" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="G27" s="33" t="s">
+      <c r="G27" s="34" t="s">
         <v>148</v>
       </c>
-      <c r="H27" s="29" t="s">
+      <c r="H27" s="31" t="s">
         <v>147</v>
       </c>
-      <c r="I27" s="30"/>
+      <c r="I27" s="32"/>
     </row>
     <row r="28" spans="3:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C28" s="10">
         <v>7</v>
       </c>
-      <c r="D28" s="31"/>
+      <c r="D28" s="23"/>
       <c r="E28" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="F28" s="34"/>
-      <c r="G28" s="32"/>
-      <c r="H28" s="29"/>
-      <c r="I28" s="30"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="33"/>
+      <c r="H28" s="31"/>
+      <c r="I28" s="32"/>
     </row>
     <row r="29" spans="3:9" ht="63.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C29" s="10">
         <v>8</v>
       </c>
-      <c r="D29" s="32" t="s">
+      <c r="D29" s="33" t="s">
         <v>134</v>
       </c>
-      <c r="E29" s="32"/>
+      <c r="E29" s="33"/>
       <c r="F29" s="10" t="s">
         <v>135</v>
       </c>
       <c r="G29" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="H29" s="23" t="s">
-        <v>152</v>
-      </c>
-      <c r="I29" s="24"/>
+      <c r="H29" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="I29" s="26"/>
     </row>
     <row r="30" spans="3:9" ht="56.25" x14ac:dyDescent="0.4">
       <c r="C30" s="10">
         <v>9</v>
       </c>
-      <c r="D30" s="32" t="s">
+      <c r="D30" s="33" t="s">
         <v>136</v>
       </c>
-      <c r="E30" s="32"/>
+      <c r="E30" s="33"/>
       <c r="F30" s="10" t="s">
         <v>137</v>
       </c>
       <c r="G30" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="H30" s="25" t="s">
+      <c r="H30" s="27" t="s">
         <v>149</v>
       </c>
-      <c r="I30" s="26"/>
+      <c r="I30" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="F27:F28"/>
     <mergeCell ref="H29:I29"/>
     <mergeCell ref="H30:I30"/>
     <mergeCell ref="D20:E20"/>
@@ -1750,6 +1752,11 @@
     <mergeCell ref="D21:D22"/>
     <mergeCell ref="D23:D24"/>
     <mergeCell ref="D25:D26"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="F27:F28"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2346,10 +2353,10 @@
       </c>
     </row>
     <row r="11" spans="3:10" x14ac:dyDescent="0.4">
-      <c r="D11" s="26" t="s">
+      <c r="D11" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="26"/>
+      <c r="E11" s="28"/>
       <c r="F11" t="s">
         <v>10</v>
       </c>
@@ -2358,10 +2365,10 @@
       </c>
     </row>
     <row r="12" spans="3:10" x14ac:dyDescent="0.4">
-      <c r="D12" s="37" t="s">
+      <c r="D12" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="38"/>
+      <c r="E12" s="37"/>
       <c r="F12" s="4" t="s">
         <v>11</v>
       </c>
@@ -2379,10 +2386,10 @@
       </c>
     </row>
     <row r="13" spans="3:10" x14ac:dyDescent="0.4">
-      <c r="D13" s="39" t="s">
+      <c r="D13" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="39"/>
+      <c r="E13" s="38"/>
       <c r="F13" t="s">
         <v>11</v>
       </c>
@@ -2397,10 +2404,10 @@
       </c>
     </row>
     <row r="14" spans="3:10" x14ac:dyDescent="0.4">
-      <c r="D14" s="39" t="s">
+      <c r="D14" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="39"/>
+      <c r="E14" s="38"/>
       <c r="F14" t="s">
         <v>11</v>
       </c>
@@ -2415,10 +2422,10 @@
       </c>
     </row>
     <row r="15" spans="3:10" x14ac:dyDescent="0.4">
-      <c r="D15" s="39" t="s">
+      <c r="D15" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="E15" s="39"/>
+      <c r="E15" s="38"/>
       <c r="F15" t="s">
         <v>11</v>
       </c>
@@ -2433,10 +2440,10 @@
       </c>
     </row>
     <row r="16" spans="3:10" x14ac:dyDescent="0.4">
-      <c r="D16" s="36" t="s">
+      <c r="D16" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="E16" s="36"/>
+      <c r="E16" s="39"/>
       <c r="F16" t="s">
         <v>12</v>
       </c>
@@ -2454,10 +2461,10 @@
       </c>
     </row>
     <row r="17" spans="3:10" x14ac:dyDescent="0.4">
-      <c r="D17" s="36" t="s">
+      <c r="D17" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="36"/>
+      <c r="E17" s="39"/>
       <c r="F17" t="s">
         <v>13</v>
       </c>
@@ -2472,10 +2479,10 @@
       </c>
     </row>
     <row r="18" spans="3:10" x14ac:dyDescent="0.4">
-      <c r="D18" s="36" t="s">
+      <c r="D18" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="E18" s="36"/>
+      <c r="E18" s="39"/>
       <c r="F18" t="s">
         <v>14</v>
       </c>
@@ -2487,10 +2494,10 @@
       </c>
     </row>
     <row r="19" spans="3:10" x14ac:dyDescent="0.4">
-      <c r="D19" s="36" t="s">
+      <c r="D19" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="E19" s="36"/>
+      <c r="E19" s="39"/>
       <c r="F19" t="s">
         <v>15</v>
       </c>
@@ -2525,10 +2532,10 @@
       </c>
     </row>
     <row r="23" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="D23" s="26" t="s">
+      <c r="D23" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="E23" s="26"/>
+      <c r="E23" s="28"/>
       <c r="F23" s="1" t="s">
         <v>10</v>
       </c>
@@ -2537,10 +2544,10 @@
       </c>
     </row>
     <row r="24" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="D24" s="37" t="s">
+      <c r="D24" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="E24" s="38"/>
+      <c r="E24" s="37"/>
       <c r="F24" s="4" t="s">
         <v>58</v>
       </c>
@@ -2561,10 +2568,10 @@
       <c r="C25" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="D25" s="39" t="s">
+      <c r="D25" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="E25" s="39"/>
+      <c r="E25" s="38"/>
       <c r="F25" s="1" t="s">
         <v>11</v>
       </c>
@@ -2582,10 +2589,10 @@
       <c r="C26" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D26" s="39" t="s">
+      <c r="D26" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="E26" s="39"/>
+      <c r="E26" s="38"/>
       <c r="F26" s="1" t="s">
         <v>11</v>
       </c>
@@ -2603,10 +2610,10 @@
       <c r="C27" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D27" s="39" t="s">
+      <c r="D27" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="E27" s="39"/>
+      <c r="E27" s="38"/>
       <c r="F27" s="1" t="s">
         <v>11</v>
       </c>
@@ -2621,10 +2628,10 @@
       </c>
     </row>
     <row r="28" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="D28" s="36" t="s">
+      <c r="D28" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="E28" s="36"/>
+      <c r="E28" s="39"/>
       <c r="F28" s="1" t="s">
         <v>13</v>
       </c>
@@ -2642,10 +2649,10 @@
       </c>
     </row>
     <row r="29" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="D29" s="36" t="s">
+      <c r="D29" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="E29" s="36"/>
+      <c r="E29" s="39"/>
       <c r="F29" s="1" t="s">
         <v>12</v>
       </c>
@@ -2660,10 +2667,10 @@
       </c>
     </row>
     <row r="30" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="D30" s="36" t="s">
+      <c r="D30" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="E30" s="36"/>
+      <c r="E30" s="39"/>
       <c r="F30" s="1" t="s">
         <v>14</v>
       </c>
@@ -2675,10 +2682,10 @@
       </c>
     </row>
     <row r="31" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="D31" s="36" t="s">
+      <c r="D31" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="E31" s="36"/>
+      <c r="E31" s="39"/>
       <c r="F31" s="1" t="s">
         <v>15</v>
       </c>
@@ -2721,10 +2728,10 @@
       </c>
     </row>
     <row r="38" spans="3:11" x14ac:dyDescent="0.4">
-      <c r="D38" s="26" t="s">
+      <c r="D38" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="E38" s="26"/>
+      <c r="E38" s="28"/>
       <c r="F38" t="s">
         <v>30</v>
       </c>
@@ -2746,10 +2753,10 @@
       <c r="C39" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D39" s="24" t="s">
+      <c r="D39" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="E39" s="24"/>
+      <c r="E39" s="26"/>
       <c r="F39" t="s">
         <v>35</v>
       </c>
@@ -2771,10 +2778,10 @@
       <c r="C40" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D40" s="24" t="s">
+      <c r="D40" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="E40" s="24"/>
+      <c r="E40" s="26"/>
       <c r="F40" t="s">
         <v>13</v>
       </c>
@@ -2792,10 +2799,10 @@
       <c r="C41" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D41" s="24" t="s">
+      <c r="D41" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="E41" s="24"/>
+      <c r="E41" s="26"/>
       <c r="F41" t="s">
         <v>38</v>
       </c>
@@ -2810,10 +2817,10 @@
       </c>
     </row>
     <row r="42" spans="3:11" x14ac:dyDescent="0.4">
-      <c r="D42" s="26" t="s">
+      <c r="D42" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="E42" s="26"/>
+      <c r="E42" s="28"/>
       <c r="F42" t="s">
         <v>40</v>
       </c>
@@ -2825,10 +2832,10 @@
       </c>
     </row>
     <row r="43" spans="3:11" x14ac:dyDescent="0.4">
-      <c r="D43" s="26" t="s">
+      <c r="D43" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="E43" s="26"/>
+      <c r="E43" s="28"/>
       <c r="F43" t="s">
         <v>10</v>
       </c>
@@ -2868,10 +2875,10 @@
       </c>
     </row>
     <row r="48" spans="3:11" x14ac:dyDescent="0.4">
-      <c r="D48" s="26" t="s">
+      <c r="D48" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="E48" s="26"/>
+      <c r="E48" s="28"/>
       <c r="F48" t="s">
         <v>46</v>
       </c>
@@ -2893,10 +2900,10 @@
       <c r="C49" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D49" s="24" t="s">
+      <c r="D49" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="E49" s="24"/>
+      <c r="E49" s="26"/>
       <c r="F49" t="s">
         <v>35</v>
       </c>
@@ -2918,10 +2925,10 @@
       <c r="C50" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D50" s="24" t="s">
+      <c r="D50" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="E50" s="24"/>
+      <c r="E50" s="26"/>
       <c r="F50" t="s">
         <v>13</v>
       </c>
@@ -2939,10 +2946,10 @@
       <c r="C51" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D51" s="24" t="s">
+      <c r="D51" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="E51" s="24"/>
+      <c r="E51" s="26"/>
       <c r="F51" t="s">
         <v>38</v>
       </c>
@@ -2957,10 +2964,10 @@
       </c>
     </row>
     <row r="52" spans="3:10" x14ac:dyDescent="0.4">
-      <c r="D52" s="26" t="s">
+      <c r="D52" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="E52" s="26"/>
+      <c r="E52" s="28"/>
       <c r="F52" t="s">
         <v>49</v>
       </c>
@@ -2972,10 +2979,10 @@
       </c>
     </row>
     <row r="53" spans="3:10" x14ac:dyDescent="0.4">
-      <c r="D53" s="26" t="s">
+      <c r="D53" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="E53" s="26"/>
+      <c r="E53" s="28"/>
       <c r="F53" t="s">
         <v>10</v>
       </c>
@@ -2991,6 +2998,20 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D39:E39"/>
     <mergeCell ref="D40:E40"/>
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="D12:E12"/>
@@ -3007,20 +3028,6 @@
     <mergeCell ref="D29:E29"/>
     <mergeCell ref="D30:E30"/>
     <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="D50:E50"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
